--- a/baidu_history_xlsx/baidu_鳌拜.xlsx
+++ b/baidu_history_xlsx/baidu_鳌拜.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+  <si>
+    <t>分割线覆盖</t>
+  </si>
   <si>
     <t>lsq175163899</t>
   </si>
@@ -669,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -825,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -836,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -847,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -858,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -891,7 +894,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -902,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -924,7 +927,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -935,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -968,7 +971,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -979,7 +982,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1243,7 +1246,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1254,7 +1257,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1287,7 +1290,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1298,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1452,7 +1455,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1463,7 +1466,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1496,7 +1499,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1507,7 +1510,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1793,7 +1796,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1804,6 +1807,17 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
         <v>1</v>
       </c>
     </row>
